--- a/data/trans_dic/P32E$eventos_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Dificultad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -858,7 +858,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$eventos_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Dificultad-trans_dic.xlsx
@@ -640,10 +640,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.2950745957977417</v>
+        <v>0.3909150380928042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0996172344576754</v>
+        <v>0.1014771597009621</v>
       </c>
     </row>
     <row r="10">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.06623241143413236</v>
+        <v>0.06623241143413237</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1513506816597829</v>
+        <v>0.1513506816597828</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09797131606735422</v>
+        <v>0.09797131606735424</v>
       </c>
     </row>
     <row r="11">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02553593171872657</v>
+        <v>0.02356210188780606</v>
       </c>
     </row>
     <row r="12">
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2301049951936036</v>
+        <v>0.2150459488670424</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4356446037641735</v>
+        <v>0.4277320351221742</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2473572871303094</v>
+        <v>0.2232396225236528</v>
       </c>
     </row>
     <row r="13">
@@ -716,10 +716,10 @@
         <v>0.01988426527103912</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04994815308960099</v>
+        <v>0.04994815308960098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03003892327658787</v>
+        <v>0.03003892327658788</v>
       </c>
     </row>
     <row r="14">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1142451976506073</v>
+        <v>0.1134666633413297</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2196411388300719</v>
+        <v>0.2189733380043984</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09634056268580944</v>
+        <v>0.1036221733933469</v>
       </c>
     </row>
     <row r="16">
@@ -771,7 +771,7 @@
         <v>0.01915236672268698</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.08067336811285285</v>
+        <v>0.08067336811285286</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.0363727107587391</v>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005588732106044193</v>
+        <v>0.005553815850899205</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01790257697574498</v>
+        <v>0.02269804052002047</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01595116734065267</v>
+        <v>0.01473309812798577</v>
       </c>
     </row>
     <row r="18">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04871288218933682</v>
+        <v>0.05432113028528174</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1749554766128776</v>
+        <v>0.1945910373338672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07232442257281853</v>
+        <v>0.0776294361974434</v>
       </c>
     </row>
     <row r="19">
@@ -1026,10 +1026,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>3789</v>
+        <v>5019</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5245</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1252</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="15">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7077</v>
+        <v>6614</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7966</v>
+        <v>7822</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12130</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="16">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6067</v>
+        <v>6025</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5949</v>
+        <v>5931</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7725</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="20">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1124</v>
+        <v>1425</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3577</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="23">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7866</v>
+        <v>8772</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10982</v>
+        <v>12215</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16219</v>
+        <v>17409</v>
       </c>
     </row>
     <row r="24">
